--- a/Stevenson_Hockey.xlsx
+++ b/Stevenson_Hockey.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffchen/Jeffchen/Python/hockey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B83F63A-4E84-C44C-9B5A-A0C152884A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47ECAC2-2BF4-3048-840D-42C3BC88844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33340" yWindow="500" windowWidth="35460" windowHeight="26580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32100" yWindow="500" windowWidth="36700" windowHeight="26580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="1" r:id="rId1"/>
     <sheet name="Scoring" sheetId="3" r:id="rId2"/>
     <sheet name="Penalties" sheetId="5" r:id="rId3"/>
     <sheet name="Shots" sheetId="4" r:id="rId4"/>
-    <sheet name="faceoff" sheetId="6" r:id="rId5"/>
+    <sheet name="Faceoff" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="195">
   <si>
     <t>Maxim</t>
   </si>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Lose</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1205,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2242,6 +2245,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2250,7 +2254,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L3"/>
+      <selection activeCell="A19" sqref="A19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3440,6 +3444,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3448,7 +3453,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4231,6 +4236,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4238,8 +4244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFA438C-2361-804B-93E7-44EB9B498251}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5597,15 +5603,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFFED75-74A4-8C4C-93C4-8BFB02B813E5}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -5621,14 +5627,14 @@
       <c r="D1" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>125</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="G1" s="4" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5644,14 +5650,14 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="23">
-        <v>2</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>138</v>
+      <c r="E2" s="23">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -5665,16 +5671,16 @@
         <v>139</v>
       </c>
       <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="23">
-        <v>63</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>138</v>
+        <v>2</v>
+      </c>
+      <c r="E3" s="23">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -5688,16 +5694,16 @@
         <v>139</v>
       </c>
       <c r="D4" s="8">
-        <v>2</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23">
         <v>38</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>138</v>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5713,14 +5719,14 @@
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="23">
-        <v>80</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>138</v>
+      <c r="E5" s="23">
+        <v>38</v>
+      </c>
+      <c r="F5" s="8">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5734,16 +5740,16 @@
         <v>139</v>
       </c>
       <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="23">
-        <v>2</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="E6" s="23">
+        <v>80</v>
+      </c>
+      <c r="F6" s="8">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5759,14 +5765,14 @@
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="E7" s="23">
         <v>80</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>138</v>
+      <c r="F7" s="8">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5780,16 +5786,16 @@
         <v>139</v>
       </c>
       <c r="D8" s="8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F8" s="23">
-        <v>2</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="E8" s="23">
+        <v>80</v>
+      </c>
+      <c r="F8" s="8">
+        <v>8</v>
+      </c>
+      <c r="G8" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5805,129 +5811,129 @@
       <c r="D9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="23">
+      <c r="E9" s="23">
         <v>80</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>138</v>
+      <c r="F9" s="8">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>45237</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>139</v>
+        <v>45268</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="D10" s="8">
         <v>3</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="E10" s="23">
         <v>6</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>189</v>
+      <c r="F10" s="8">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>45237</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>139</v>
+        <v>45268</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="E11" s="23">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8">
+        <v>5</v>
+      </c>
+      <c r="G11" s="8">
         <v>0</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
-        <v>45237</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>139</v>
+        <v>45268</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="D12" s="8">
         <v>2</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>189</v>
+      <c r="E12" s="23">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <v>45237</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>139</v>
+        <v>45327</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>189</v>
+      <c r="E13" s="23">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <v>45237</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>139</v>
+        <v>45327</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="D14" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>189</v>
+      <c r="E14" s="23">
+        <v>14</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Stevenson_Hockey.xlsx
+++ b/Stevenson_Hockey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffchen/Jeffchen/Python/hockey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47ECAC2-2BF4-3048-840D-42C3BC88844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC650CE-8DB8-EF48-A5FD-BBBC3F732FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32100" yWindow="500" windowWidth="36700" windowHeight="26580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31100" yWindow="500" windowWidth="37700" windowHeight="26580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="192">
   <si>
     <t>Maxim</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Edward</t>
   </si>
   <si>
-    <t>Adrian</t>
-  </si>
-  <si>
     <t>Ivan</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Fridman</t>
   </si>
   <si>
-    <t>Gualdron</t>
-  </si>
-  <si>
     <t>Ignatov</t>
   </si>
   <si>
@@ -300,9 +294,6 @@
     <t>Adilman</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Matthew</t>
   </si>
   <si>
@@ -315,9 +306,6 @@
     <t>Bagreyser</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Nicholas</t>
   </si>
   <si>
@@ -342,9 +330,6 @@
     <t>Gobel</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>yuxuan</t>
   </si>
   <si>
@@ -618,10 +603,16 @@
     <t>PenaltyTeam</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Lose</t>
+  </si>
+  <si>
+    <t>Goalie</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Defense</t>
   </si>
 </sst>
 </file>
@@ -633,7 +624,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,13 +662,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF212529"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <color rgb="FF999999"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -828,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -897,6 +913,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1202,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:E64"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1213,665 +1235,803 @@
     <col min="1" max="1" width="14.5" style="10" customWidth="1"/>
     <col min="2" max="4" width="14.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="E2" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="23">
-        <v>2</v>
+        <v>190</v>
+      </c>
+      <c r="E3" s="9">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="23">
-        <v>3</v>
+        <v>191</v>
+      </c>
+      <c r="E4" s="9">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="23">
-        <v>4</v>
+        <v>191</v>
+      </c>
+      <c r="E5" s="9">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="23">
-        <v>6</v>
+        <v>191</v>
+      </c>
+      <c r="E6" s="9">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="23">
-        <v>12</v>
+        <v>190</v>
+      </c>
+      <c r="E7" s="9">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="23">
-        <v>14</v>
+        <v>190</v>
+      </c>
+      <c r="E8" s="9">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="23">
-        <v>23</v>
+        <v>190</v>
+      </c>
+      <c r="E9" s="9">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="23">
-        <v>33</v>
+        <v>191</v>
+      </c>
+      <c r="E10" s="9">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="23">
-        <v>38</v>
+        <v>190</v>
+      </c>
+      <c r="E11" s="9">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="23">
-        <v>63</v>
+        <v>190</v>
+      </c>
+      <c r="E12" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="23">
-        <v>80</v>
+        <v>189</v>
+      </c>
+      <c r="E13" s="9">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="23">
-        <v>81</v>
+        <v>190</v>
+      </c>
+      <c r="E14" s="9">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="23">
-        <v>95</v>
+        <v>191</v>
+      </c>
+      <c r="E15" s="9">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="23">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="E16" s="9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="E17" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="E18" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="D20" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D22" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="33">
+        <v>10</v>
+      </c>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="33">
+        <v>80</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="29"/>
+    </row>
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="33">
+        <v>2</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="29"/>
+    </row>
+    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="33">
+        <v>26</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="29"/>
+    </row>
+    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="33">
+        <v>90</v>
+      </c>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="29"/>
+    </row>
+    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="33">
+        <v>98</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="29"/>
+    </row>
+    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="33">
+        <v>21</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="29"/>
+    </row>
+    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="33">
+        <v>1</v>
+      </c>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="29"/>
+    </row>
+    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="33">
+        <v>38</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="33">
+        <v>15</v>
+      </c>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="29"/>
+    </row>
+    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="33">
+        <v>9</v>
+      </c>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="29"/>
+    </row>
+    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="33">
+        <v>12</v>
+      </c>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="29"/>
+    </row>
+    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="33">
+        <v>31</v>
+      </c>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="29"/>
+    </row>
+    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="33">
+        <v>74</v>
+      </c>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="29"/>
+    </row>
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="33">
+        <v>7</v>
+      </c>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="29"/>
+    </row>
+    <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="33">
+        <v>95</v>
+      </c>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="29"/>
+    </row>
+    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="33">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="29"/>
+    </row>
+    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" s="33">
+        <v>11</v>
+      </c>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="29"/>
+    </row>
+    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41" s="33">
         <v>13</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="29"/>
+    </row>
+    <row r="42" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="9">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="9">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="29"/>
+    </row>
+    <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>85</v>
@@ -1879,368 +2039,253 @@
       <c r="C43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="29"/>
+    </row>
+    <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="29"/>
+    </row>
+    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="9">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="29"/>
+    </row>
+    <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" s="8" t="s">
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="29"/>
+    </row>
+    <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="29"/>
+    </row>
+    <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="29"/>
+    </row>
+    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="8" t="s">
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="29"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="9">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="8" t="s">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="8" t="s">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="9">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="8" t="s">
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="8" t="s">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" s="8" t="s">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="8" t="s">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="9">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="9">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="9">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E58" s="9">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="8" t="s">
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="9">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="8" t="s">
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="9">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="9">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" s="9">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="9">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2254,7 +2299,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C20"/>
+      <selection activeCell="L1" sqref="L1:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2272,49 +2317,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="O1" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -2322,16 +2367,16 @@
         <v>45237</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F2" s="15">
         <v>8</v>
@@ -2340,22 +2385,22 @@
         <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I2" s="16">
         <v>1</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L2" s="16">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="M2" s="16">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="17">
@@ -2367,16 +2412,16 @@
         <v>45237</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F3" s="15">
         <v>8</v>
@@ -2385,22 +2430,22 @@
         <v>5</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I3" s="16">
         <v>1</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L3" s="16">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="M3" s="16">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="17">
@@ -2412,16 +2457,16 @@
         <v>45237</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F4" s="15">
         <v>8</v>
@@ -2430,22 +2475,22 @@
         <v>5</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I4" s="16">
         <v>1</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L4" s="16">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="M4" s="16">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="17">
@@ -2457,16 +2502,16 @@
         <v>45237</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F5" s="15">
         <v>8</v>
@@ -2475,25 +2520,25 @@
         <v>5</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I5" s="16">
         <v>1</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L5" s="16">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="M5" s="16">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N5" s="16">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O5" s="17">
         <v>57</v>
@@ -2504,16 +2549,16 @@
         <v>45237</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F6" s="15">
         <v>8</v>
@@ -2522,22 +2567,22 @@
         <v>5</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="16">
+        <v>2</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="16">
-        <v>2</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>145</v>
-      </c>
       <c r="L6" s="16">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M6" s="16">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="N6" s="16"/>
       <c r="O6" s="17">
@@ -2549,16 +2594,16 @@
         <v>45237</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F7" s="15">
         <v>8</v>
@@ -2567,22 +2612,22 @@
         <v>5</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I7" s="16">
         <v>2</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L7" s="16">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M7" s="16">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="17">
@@ -2594,16 +2639,16 @@
         <v>45237</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F8" s="15">
         <v>8</v>
@@ -2612,22 +2657,22 @@
         <v>5</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I8" s="16">
         <v>3</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L8" s="16">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="M8" s="16">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="17">
@@ -2639,16 +2684,16 @@
         <v>45237</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F9" s="15">
         <v>8</v>
@@ -2657,22 +2702,22 @@
         <v>5</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I9" s="16">
         <v>3</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L9" s="16">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M9" s="16">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="17">
@@ -2684,16 +2729,16 @@
         <v>45237</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F10" s="15">
         <v>8</v>
@@ -2702,22 +2747,22 @@
         <v>5</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I10" s="16">
         <v>1</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L10" s="16">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="M10" s="16">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="17">
@@ -2729,16 +2774,16 @@
         <v>45237</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F11" s="15">
         <v>8</v>
@@ -2747,22 +2792,22 @@
         <v>5</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I11" s="16">
         <v>1</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L11" s="16">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="M11" s="16">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="17">
@@ -2774,16 +2819,16 @@
         <v>45237</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F12" s="15">
         <v>8</v>
@@ -2792,22 +2837,22 @@
         <v>5</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I12" s="16">
         <v>1</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L12" s="16">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M12" s="16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="17">
@@ -2819,16 +2864,16 @@
         <v>45237</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F13" s="15">
         <v>8</v>
@@ -2837,22 +2882,22 @@
         <v>5</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I13" s="16">
         <v>2</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L13" s="16">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M13" s="16">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N13" s="16"/>
       <c r="O13" s="17">
@@ -2864,16 +2909,16 @@
         <v>45237</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F14" s="15">
         <v>8</v>
@@ -2882,22 +2927,22 @@
         <v>5</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I14" s="16">
         <v>2</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L14" s="16">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M14" s="16">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="N14" s="16"/>
       <c r="O14" s="17">
@@ -2909,16 +2954,16 @@
         <v>45268</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F15" s="15">
         <v>3</v>
@@ -2927,19 +2972,19 @@
         <v>2</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I15" s="16">
         <v>1</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L15" s="16">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="M15" s="16">
         <v>38</v>
@@ -2954,16 +2999,16 @@
         <v>45268</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F16" s="15">
         <v>3</v>
@@ -2972,19 +3017,19 @@
         <v>2</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I16" s="16">
         <v>2</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L16" s="16">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="M16" s="16">
         <v>2</v>
@@ -2999,16 +3044,16 @@
         <v>45268</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F17" s="15">
         <v>3</v>
@@ -3017,19 +3062,19 @@
         <v>2</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I17" s="16">
         <v>3</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L17" s="16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
@@ -3042,16 +3087,16 @@
         <v>45268</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F18" s="15">
         <v>3</v>
@@ -3060,22 +3105,22 @@
         <v>2</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I18" s="16">
         <v>1</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L18" s="16">
         <v>22</v>
       </c>
       <c r="M18" s="16">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N18" s="16"/>
       <c r="O18" s="17">
@@ -3087,16 +3132,16 @@
         <v>45268</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F19" s="15">
         <v>3</v>
@@ -3105,22 +3150,22 @@
         <v>2</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I19" s="16">
         <v>2</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L19" s="16">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M19" s="16">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N19" s="16"/>
       <c r="O19" s="17">
@@ -3132,16 +3177,16 @@
         <v>45327</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F20" s="15">
         <v>1</v>
@@ -3150,25 +3195,25 @@
         <v>3</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I20" s="16">
         <v>3</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L20" s="16">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M20" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" s="16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O20" s="17">
         <v>65</v>
@@ -3179,16 +3224,16 @@
         <v>45327</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F21" s="15">
         <v>1</v>
@@ -3197,22 +3242,22 @@
         <v>3</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I21" s="16">
         <v>1</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L21" s="16">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M21" s="16">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="N21" s="16"/>
       <c r="O21" s="17">
@@ -3224,16 +3269,16 @@
         <v>45327</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F22" s="15">
         <v>1</v>
@@ -3242,22 +3287,22 @@
         <v>3</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I22" s="16">
         <v>2</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L22" s="16">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="M22" s="16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N22" s="16"/>
       <c r="O22" s="17">
@@ -3269,16 +3314,16 @@
         <v>45327</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F23" s="15">
         <v>1</v>
@@ -3287,19 +3332,19 @@
         <v>3</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I23" s="16">
         <v>3</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L23" s="16">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
@@ -3312,16 +3357,16 @@
         <v>45357</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F24" s="15">
         <v>1</v>
@@ -3330,22 +3375,22 @@
         <v>2</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I24" s="16">
         <v>2</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L24" s="16">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="M24" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="17">
@@ -3357,16 +3402,16 @@
         <v>45357</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F25" s="15">
         <v>1</v>
@@ -3375,22 +3420,22 @@
         <v>2</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I25" s="16">
         <v>1</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L25" s="16">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="M25" s="16">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N25" s="16"/>
       <c r="O25" s="17">
@@ -3402,16 +3447,16 @@
         <v>45357</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F26" s="15">
         <v>1</v>
@@ -3420,22 +3465,22 @@
         <v>2</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I26" s="16">
         <v>3</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L26" s="16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M26" s="16">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="N26" s="16"/>
       <c r="O26" s="17">
@@ -3453,7 +3498,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3471,37 +3516,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3509,34 +3554,34 @@
         <v>45237</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="8">
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="F2" s="16">
+        <v>22</v>
       </c>
       <c r="G2" s="8">
         <v>2</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3544,34 +3589,34 @@
         <v>45237</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="8">
-        <v>63</v>
+        <v>135</v>
+      </c>
+      <c r="F3" s="16">
+        <v>33</v>
       </c>
       <c r="G3" s="8">
         <v>2</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3579,34 +3624,34 @@
         <v>45237</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="8">
-        <v>38</v>
+        <v>135</v>
+      </c>
+      <c r="F4" s="16">
+        <v>5</v>
       </c>
       <c r="G4" s="8">
         <v>2</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3614,34 +3659,34 @@
         <v>45237</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="8">
-        <v>80</v>
+        <v>135</v>
+      </c>
+      <c r="F5" s="16">
+        <v>87</v>
       </c>
       <c r="G5" s="8">
         <v>2</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3649,34 +3694,34 @@
         <v>45237</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="F6" s="16">
+        <v>6</v>
       </c>
       <c r="G6" s="8">
         <v>2</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3684,34 +3729,34 @@
         <v>45237</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="8">
-        <v>80</v>
+        <v>134</v>
+      </c>
+      <c r="F7" s="16">
+        <v>84</v>
       </c>
       <c r="G7" s="8">
         <v>2</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3719,34 +3764,34 @@
         <v>45237</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2</v>
+        <v>134</v>
+      </c>
+      <c r="F8" s="16">
+        <v>16</v>
       </c>
       <c r="G8" s="8">
         <v>2</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3754,34 +3799,34 @@
         <v>45237</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D9" s="8">
         <v>3</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="8">
-        <v>80</v>
+        <v>134</v>
+      </c>
+      <c r="F9" s="16">
+        <v>28</v>
       </c>
       <c r="G9" s="8">
         <v>2</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3789,34 +3834,34 @@
         <v>45237</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D10" s="8">
         <v>3</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="8">
-        <v>6</v>
+        <v>134</v>
+      </c>
+      <c r="F10" s="16">
+        <v>87</v>
       </c>
       <c r="G10" s="8">
         <v>10</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3824,34 +3869,34 @@
         <v>45268</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="8">
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="F11" s="16">
+        <v>6</v>
       </c>
       <c r="G11" s="8">
         <v>2</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3859,34 +3904,34 @@
         <v>45268</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="8">
-        <v>63</v>
+        <v>135</v>
+      </c>
+      <c r="F12" s="16">
+        <v>84</v>
       </c>
       <c r="G12" s="8">
         <v>2</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3894,34 +3939,34 @@
         <v>45268</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="8">
-        <v>38</v>
+        <v>182</v>
+      </c>
+      <c r="F13" s="16">
+        <v>16</v>
       </c>
       <c r="G13" s="8">
         <v>2</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3929,34 +3974,34 @@
         <v>45268</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D14" s="8">
         <v>2</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="8">
-        <v>2</v>
+        <v>182</v>
+      </c>
+      <c r="F14" s="16">
+        <v>28</v>
       </c>
       <c r="G14" s="8">
         <v>2</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3964,34 +4009,34 @@
         <v>45327</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D15" s="8">
         <v>3</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="8">
-        <v>80</v>
+        <v>183</v>
+      </c>
+      <c r="F15" s="16">
+        <v>87</v>
       </c>
       <c r="G15" s="8">
         <v>2</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3999,34 +4044,34 @@
         <v>45327</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D16" s="8">
         <v>3</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="8">
-        <v>6</v>
+        <v>135</v>
+      </c>
+      <c r="F16" s="16">
+        <v>84</v>
       </c>
       <c r="G16" s="8">
         <v>10</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -4034,34 +4079,34 @@
         <v>45327</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D17" s="8">
         <v>2</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="8">
-        <v>2</v>
+        <v>183</v>
+      </c>
+      <c r="F17" s="16">
+        <v>16</v>
       </c>
       <c r="G17" s="8">
         <v>2</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -4069,34 +4114,34 @@
         <v>45327</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D18" s="8">
         <v>2</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="8">
-        <v>80</v>
+        <v>135</v>
+      </c>
+      <c r="F18" s="16">
+        <v>28</v>
       </c>
       <c r="G18" s="8">
         <v>2</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -4104,34 +4149,34 @@
         <v>45357</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D19" s="8">
         <v>2</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="8">
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="F19" s="16">
+        <v>87</v>
       </c>
       <c r="G19" s="8">
         <v>2</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -4139,34 +4184,34 @@
         <v>45357</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D20" s="8">
         <v>3</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="8">
-        <v>80</v>
+        <v>182</v>
+      </c>
+      <c r="F20" s="16">
+        <v>16</v>
       </c>
       <c r="G20" s="8">
         <v>2</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -4242,10 +4287,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFA438C-2361-804B-93E7-44EB9B498251}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:I46"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4253,1344 +4298,1206 @@
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" customWidth="1"/>
-    <col min="4" max="6" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>131</v>
-      </c>
       <c r="D1" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F1" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>45237</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="16">
-        <v>1</v>
-      </c>
-      <c r="G2" s="23">
-        <v>4</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F2" s="9">
+        <v>87</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>45237</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="16">
-        <v>1</v>
-      </c>
-      <c r="G3" s="23">
-        <v>63</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F3" s="9">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>45237</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="16">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23">
-        <v>38</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F4" s="9">
+        <v>35</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>45237</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="16">
-        <v>1</v>
-      </c>
-      <c r="G5" s="23">
-        <v>80</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F5" s="9">
+        <v>63</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>45237</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="23">
-        <v>2</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F6" s="9">
+        <v>29</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>45237</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="23">
-        <v>80</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F7" s="9">
+        <v>93</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>45237</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F8" s="16">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23">
-        <v>2</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F8" s="9">
+        <v>88</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>45237</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D9" s="8">
         <v>3</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23">
-        <v>80</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F9" s="9">
+        <v>27</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>45237</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D10" s="8">
         <v>3</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="23">
-        <v>6</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F10" s="9">
+        <v>70</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>45237</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F11" s="16">
-        <v>1</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F11" s="9">
+        <v>41</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>45237</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D12" s="8">
         <v>2</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F12" s="9">
+        <v>87</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>45237</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F13" s="9">
+        <v>6</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>45237</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D14" s="8">
         <v>3</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F14" s="9">
+        <v>35</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>45268</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="16">
-        <v>1</v>
-      </c>
-      <c r="G15" s="23">
+        <v>133</v>
+      </c>
+      <c r="F15" s="9">
         <v>63</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>45268</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="23">
-        <v>2</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F16" s="9">
+        <v>29</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>45268</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="16">
-        <v>1</v>
-      </c>
-      <c r="G17" s="23">
-        <v>63</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F17" s="9">
+        <v>93</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>45268</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D18" s="8">
         <v>2</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="16">
-        <v>1</v>
-      </c>
-      <c r="G18" s="23">
-        <v>38</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F18" s="9">
+        <v>88</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>45268</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D19" s="8">
         <v>2</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F19" s="16">
-        <v>1</v>
-      </c>
-      <c r="G19" s="23">
-        <v>80</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F19" s="9">
+        <v>27</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>45268</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="16">
-        <v>1</v>
-      </c>
-      <c r="G20" s="23">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F20" s="9">
+        <v>93</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>45268</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D21" s="8">
         <v>3</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F21" s="16">
-        <v>1</v>
-      </c>
-      <c r="G21" s="23">
-        <v>80</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F21" s="9">
+        <v>88</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>45268</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D22" s="8">
         <v>2</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="23">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F22" s="9">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>45268</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D23" s="8">
         <v>2</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-      <c r="G23" s="23">
-        <v>2</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F23" s="9">
+        <v>70</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>45268</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D24" s="8">
         <v>2</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F24" s="16">
-        <v>1</v>
-      </c>
-      <c r="G24" s="23">
-        <v>80</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F24" s="9">
+        <v>41</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>45327</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D25" s="8">
         <v>2</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" s="16">
-        <v>1</v>
-      </c>
-      <c r="G25" s="23">
-        <v>2</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F25" s="9">
+        <v>87</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>45327</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D26" s="8">
         <v>3</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="16">
-        <v>1</v>
-      </c>
-      <c r="G26" s="23">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F26" s="9">
+        <v>41</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>45327</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F27" s="16">
-        <v>1</v>
-      </c>
-      <c r="G27" s="23">
-        <v>63</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F27" s="9">
+        <v>87</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>45327</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D28" s="8">
         <v>2</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F28" s="16">
-        <v>1</v>
-      </c>
-      <c r="G28" s="23">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F28" s="9">
+        <v>6</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>45327</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D29" s="8">
         <v>3</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F29" s="16">
-        <v>1</v>
-      </c>
-      <c r="G29" s="23">
-        <v>80</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F29" s="9">
+        <v>35</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>45327</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D30" s="8">
         <v>2</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30" s="16">
-        <v>1</v>
-      </c>
-      <c r="G30" s="23">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F30" s="9">
+        <v>63</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>45327</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D31" s="8">
         <v>2</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="16">
-        <v>1</v>
-      </c>
-      <c r="G31" s="23">
-        <v>2</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F31" s="9">
+        <v>29</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>45327</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D32" s="8">
         <v>2</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F32" s="16">
-        <v>1</v>
-      </c>
-      <c r="G32" s="23">
+        <v>184</v>
+      </c>
+      <c r="F32" s="23">
         <v>80</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G32" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>45327</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D33" s="8">
         <v>2</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F33" s="16">
-        <v>1</v>
-      </c>
-      <c r="G33" s="23">
-        <v>2</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F33" s="9">
+        <v>35</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>45327</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D34" s="8">
         <v>1</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F34" s="16">
-        <v>1</v>
-      </c>
-      <c r="G34" s="23">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F34" s="9">
+        <v>63</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>45327</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D35" s="8">
         <v>2</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="16">
-        <v>1</v>
-      </c>
-      <c r="G35" s="23">
-        <v>38</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F35" s="9">
+        <v>29</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>45327</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D36" s="8">
         <v>2</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F36" s="16">
-        <v>1</v>
-      </c>
-      <c r="G36" s="23">
-        <v>80</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I36" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F36" s="9">
+        <v>93</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>45327</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D37" s="8">
         <v>2</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F37" s="16">
-        <v>1</v>
-      </c>
-      <c r="G37" s="23">
-        <v>2</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F37" s="9">
+        <v>88</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>45357</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D38" s="8">
         <v>2</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F38" s="16">
-        <v>1</v>
-      </c>
-      <c r="G38" s="23">
-        <v>80</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F38" s="9">
+        <v>27</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>45357</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D39" s="8">
         <v>2</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="16">
-        <v>1</v>
-      </c>
-      <c r="G39" s="23">
-        <v>2</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I39" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F39" s="9">
+        <v>93</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>45357</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D40" s="8">
         <v>2</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F40" s="16">
-        <v>1</v>
-      </c>
-      <c r="G40" s="23">
-        <v>80</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I40" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F40" s="9">
+        <v>35</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>45357</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D41" s="8">
         <v>2</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F41" s="16">
-        <v>1</v>
-      </c>
-      <c r="G41" s="23">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="I41" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F41" s="9">
+        <v>63</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>45357</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D42" s="8">
         <v>3</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F42" s="16">
-        <v>1</v>
-      </c>
-      <c r="G42" s="23">
-        <v>80</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I42" s="26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F42" s="9">
+        <v>29</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>45357</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D43" s="8">
         <v>2</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F43" s="16">
-        <v>1</v>
-      </c>
-      <c r="G43" s="23">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="I43" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F43" s="9">
+        <v>93</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>45357</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D44" s="8">
         <v>3</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F44" s="16">
-        <v>1</v>
-      </c>
-      <c r="G44" s="23">
-        <v>80</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F44" s="9">
+        <v>88</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>45357</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D45" s="8">
         <v>1</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F45" s="16">
-        <v>1</v>
-      </c>
-      <c r="G45" s="23">
-        <v>0</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="I45" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F45" s="9">
+        <v>27</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>45357</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D46" s="8">
         <v>2</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F46" s="16">
-        <v>1</v>
-      </c>
-      <c r="G46" s="23">
-        <v>0</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>177</v>
+        <v>184</v>
+      </c>
+      <c r="F46" s="9">
+        <v>93</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5603,8 +5510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFFED75-74A4-8C4C-93C4-8BFB02B813E5}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5616,25 +5523,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>131</v>
-      </c>
       <c r="D1" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5642,10 +5549,10 @@
         <v>45237</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -5665,10 +5572,10 @@
         <v>45237</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
@@ -5688,10 +5595,10 @@
         <v>45237</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -5711,10 +5618,10 @@
         <v>45237</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
@@ -5734,10 +5641,10 @@
         <v>45237</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -5757,10 +5664,10 @@
         <v>45237</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
@@ -5780,10 +5687,10 @@
         <v>45237</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D8" s="8">
         <v>3</v>
@@ -5803,10 +5710,10 @@
         <v>45237</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D9" s="8">
         <v>3</v>
@@ -5826,10 +5733,10 @@
         <v>45268</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D10" s="8">
         <v>3</v>
@@ -5849,10 +5756,10 @@
         <v>45268</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -5872,10 +5779,10 @@
         <v>45268</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D12" s="8">
         <v>2</v>
@@ -5895,10 +5802,10 @@
         <v>45327</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -5918,10 +5825,10 @@
         <v>45327</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D14" s="8">
         <v>3</v>

--- a/Stevenson_Hockey.xlsx
+++ b/Stevenson_Hockey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffchen/Jeffchen/Python/hockey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC650CE-8DB8-EF48-A5FD-BBBC3F732FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E844B85E-4017-3E44-9082-3DE28F667A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31100" yWindow="500" windowWidth="37700" windowHeight="26580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30200" yWindow="500" windowWidth="38600" windowHeight="26580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="192">
   <si>
     <t>Maxim</t>
   </si>
@@ -624,7 +624,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,25 +661,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF212529"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8.25"/>
-      <color rgb="FF999999"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -844,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -913,9 +894,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1224,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1235,10 +1213,6 @@
     <col min="1" max="1" width="14.5" style="10" customWidth="1"/>
     <col min="2" max="4" width="14.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="9" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1513,7 +1487,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -1530,7 +1504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
@@ -1547,7 +1521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>41</v>
       </c>
@@ -1564,7 +1538,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>41</v>
       </c>
@@ -1581,7 +1555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>41</v>
       </c>
@@ -1598,423 +1572,347 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="30">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="30">
         <v>10</v>
       </c>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-    </row>
-    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="30">
         <v>80</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="29"/>
-    </row>
-    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="33">
-        <v>2</v>
-      </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="29"/>
-    </row>
-    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="E25" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="30">
         <v>26</v>
       </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="29"/>
-    </row>
-    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="30">
         <v>90</v>
       </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="29"/>
-    </row>
-    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="30">
         <v>98</v>
       </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="29"/>
-    </row>
-    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="30">
         <v>21</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="29"/>
-    </row>
-    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="30">
         <v>1</v>
       </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="29"/>
-    </row>
-    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="30">
         <v>38</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="29"/>
-    </row>
-    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="30">
         <v>15</v>
       </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="29"/>
-    </row>
-    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="30">
         <v>9</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="29"/>
-    </row>
-    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="30">
         <v>12</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="29"/>
-    </row>
-    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="30">
         <v>31</v>
       </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="29"/>
-    </row>
-    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="30">
         <v>74</v>
       </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="29"/>
-    </row>
-    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="30">
         <v>7</v>
       </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="29"/>
-    </row>
-    <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="30">
         <v>95</v>
       </c>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="29"/>
-    </row>
-    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="30">
         <v>19</v>
       </c>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="29"/>
-    </row>
-    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="30">
         <v>11</v>
       </c>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="29"/>
-    </row>
-    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="31" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="30">
         <v>13</v>
       </c>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="29"/>
-    </row>
-    <row r="42" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>118</v>
       </c>
@@ -2024,12 +1922,14 @@
       <c r="C42" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="29"/>
-    </row>
-    <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="D42" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>118</v>
       </c>
@@ -2039,12 +1939,14 @@
       <c r="C43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="29"/>
-    </row>
-    <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="D43" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>118</v>
       </c>
@@ -2054,12 +1956,14 @@
       <c r="C44" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="29"/>
-    </row>
-    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="D44" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>118</v>
       </c>
@@ -2069,12 +1973,14 @@
       <c r="C45" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="29"/>
-    </row>
-    <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="D45" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>118</v>
       </c>
@@ -2084,12 +1990,14 @@
       <c r="C46" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="29"/>
-    </row>
-    <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="D46" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>118</v>
       </c>
@@ -2099,12 +2007,14 @@
       <c r="C47" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="29"/>
-    </row>
-    <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="D47" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>118</v>
       </c>
@@ -2114,12 +2024,14 @@
       <c r="C48" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="29"/>
-    </row>
-    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="D48" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" s="9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>118</v>
       </c>
@@ -2129,12 +2041,14 @@
       <c r="C49" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="29"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D49" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>118</v>
       </c>
@@ -2144,8 +2058,14 @@
       <c r="C50" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D50" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>118</v>
       </c>
@@ -2155,8 +2075,14 @@
       <c r="C51" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D51" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" s="9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>118</v>
       </c>
@@ -2166,8 +2092,14 @@
       <c r="C52" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D52" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>118</v>
       </c>
@@ -2177,8 +2109,14 @@
       <c r="C53" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D53" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>118</v>
       </c>
@@ -2188,8 +2126,14 @@
       <c r="C54" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D54" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>118</v>
       </c>
@@ -2199,8 +2143,14 @@
       <c r="C55" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D55" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>118</v>
       </c>
@@ -2210,8 +2160,14 @@
       <c r="C56" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D56" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>118</v>
       </c>
@@ -2221,8 +2177,14 @@
       <c r="C57" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D57" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>118</v>
       </c>
@@ -2232,8 +2194,14 @@
       <c r="C58" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D58" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>118</v>
       </c>
@@ -2243,8 +2211,14 @@
       <c r="C59" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D59" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>118</v>
       </c>
@@ -2254,8 +2228,14 @@
       <c r="C60" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D60" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>118</v>
       </c>
@@ -2265,8 +2245,14 @@
       <c r="C61" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D61" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>118</v>
       </c>
@@ -2276,8 +2262,14 @@
       <c r="C62" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D62" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>118</v>
       </c>
@@ -2286,6 +2278,12 @@
       </c>
       <c r="C63" s="8" t="s">
         <v>117</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="9">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +2297,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M26"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5510,8 +5508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFFED75-74A4-8C4C-93C4-8BFB02B813E5}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:G14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5557,8 +5555,8 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="23">
-        <v>2</v>
+      <c r="E2" s="9">
+        <v>84</v>
       </c>
       <c r="F2" s="8">
         <v>5</v>
@@ -5580,8 +5578,8 @@
       <c r="D3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="23">
-        <v>2</v>
+      <c r="E3" s="9">
+        <v>16</v>
       </c>
       <c r="F3" s="8">
         <v>3</v>
@@ -5603,8 +5601,8 @@
       <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="23">
-        <v>38</v>
+      <c r="E4" s="9">
+        <v>28</v>
       </c>
       <c r="F4" s="8">
         <v>4</v>
@@ -5626,8 +5624,8 @@
       <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="23">
-        <v>38</v>
+      <c r="E5" s="9">
+        <v>17</v>
       </c>
       <c r="F5" s="8">
         <v>6</v>
@@ -5649,8 +5647,8 @@
       <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="23">
-        <v>80</v>
+      <c r="E6" s="9">
+        <v>22</v>
       </c>
       <c r="F6" s="8">
         <v>6</v>
@@ -5672,8 +5670,8 @@
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="23">
-        <v>80</v>
+      <c r="E7" s="9">
+        <v>33</v>
       </c>
       <c r="F7" s="8">
         <v>4</v>
@@ -5695,8 +5693,8 @@
       <c r="D8" s="8">
         <v>3</v>
       </c>
-      <c r="E8" s="23">
-        <v>80</v>
+      <c r="E8" s="9">
+        <v>5</v>
       </c>
       <c r="F8" s="8">
         <v>8</v>
@@ -5718,8 +5716,8 @@
       <c r="D9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="23">
-        <v>80</v>
+      <c r="E9" s="9">
+        <v>22</v>
       </c>
       <c r="F9" s="8">
         <v>2</v>
@@ -5732,7 +5730,7 @@
       <c r="A10" s="7">
         <v>45268</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -5741,8 +5739,8 @@
       <c r="D10" s="8">
         <v>3</v>
       </c>
-      <c r="E10" s="23">
-        <v>6</v>
+      <c r="E10" s="9">
+        <v>16</v>
       </c>
       <c r="F10" s="8">
         <v>9</v>
@@ -5755,7 +5753,7 @@
       <c r="A11" s="7">
         <v>45268</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -5764,8 +5762,8 @@
       <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="23">
-        <v>6</v>
+      <c r="E11" s="9">
+        <v>28</v>
       </c>
       <c r="F11" s="8">
         <v>5</v>
@@ -5778,7 +5776,7 @@
       <c r="A12" s="7">
         <v>45268</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -5787,8 +5785,8 @@
       <c r="D12" s="8">
         <v>2</v>
       </c>
-      <c r="E12" s="23">
-        <v>12</v>
+      <c r="E12" s="9">
+        <v>16</v>
       </c>
       <c r="F12" s="8">
         <v>6</v>
@@ -5801,7 +5799,7 @@
       <c r="A13" s="7">
         <v>45327</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -5810,8 +5808,8 @@
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="23">
-        <v>12</v>
+      <c r="E13" s="9">
+        <v>28</v>
       </c>
       <c r="F13" s="8">
         <v>5</v>
@@ -5824,7 +5822,7 @@
       <c r="A14" s="7">
         <v>45327</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -5834,7 +5832,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F14" s="8">
         <v>2</v>
